--- a/static/downloads/89 Bưu điện Tỉnh Vĩnh Long.xlsx
+++ b/static/downloads/89 Bưu điện Tỉnh Vĩnh Long.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B238"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>891730_tai</t>
+          <t>893400_ngan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>893400_ngan</t>
+          <t>893410_duongtbc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>893410_duongtbc</t>
+          <t>891418_ngoc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>891418_ngoc</t>
+          <t>891418_ngoctbc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>891418_ngoctbc</t>
+          <t>891980_thaotbc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>891980_thaotbc</t>
+          <t>893510_chin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>893510_chin</t>
+          <t>892520_linh</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>892520_linh</t>
+          <t>892710_uttbc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>892710_uttbc</t>
+          <t>893980_san</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>893980_san</t>
+          <t>893980_santbc</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>893980_santbc</t>
+          <t>892580_hagtbc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>892580_hagtbc</t>
+          <t>892210_dep</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>892210_dep</t>
+          <t>892210_deptbc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>892210_deptbc</t>
+          <t>891490_trangtbc</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>891490_trangtbc</t>
+          <t>891471_trantbc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>891471_trantbc</t>
+          <t>891430_chau</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>891430_chau</t>
+          <t>891790_huong</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>891790_huong</t>
+          <t>892580_thuyhang</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>892580_thuyhang</t>
+          <t>891880_van</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>891880_van</t>
+          <t>892990_oanhtbc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>892990_oanhtbc</t>
+          <t>893100_nhung</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>893100_nhung</t>
+          <t>891350_my</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>891350_my</t>
+          <t>893960_huong</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>893960_huong</t>
+          <t>892750_tuyen</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>892750_tuyen</t>
+          <t>893220_trang</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>893220_trang</t>
+          <t>891500_hangtbc</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>891500_hangtbc</t>
+          <t>891710_phuogtbc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>891710_phuogtbc</t>
+          <t>891730_taitbc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>891730_taitbc</t>
+          <t>892560_chi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>892560_chi</t>
+          <t>892600_mung</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>892600_mung</t>
+          <t>892630_nhung</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>892630_nhung</t>
+          <t>892630_nhungtbc</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>892630_nhungtbc</t>
+          <t>892650_thuytbc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>892650_thuytbc</t>
+          <t>892730_chantbc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>892730_chantbc</t>
+          <t>892990_oanh</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>892990_oanh</t>
+          <t>893160_kieutbc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>893160_kieutbc</t>
+          <t>893180_thao</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>893180_thao</t>
+          <t>893200_ngan</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>893200_ngan</t>
+          <t>892560_chitbc</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>892560_chitbc</t>
+          <t>893470_hoa</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>893470_hoa</t>
+          <t>893801_liemtbc</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>893801_liemtbc</t>
+          <t>893840_loan</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>893840_loan</t>
+          <t>892540_tuyentbc</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>892540_tuyentbc</t>
+          <t>892710_ut</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>892710_ut</t>
+          <t>891790_huongtbc</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>891790_huongtbc</t>
+          <t>891378_dung</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>891378_dung</t>
+          <t>892650_thuy</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>892650_thuy</t>
+          <t>892670_tham</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>892670_tham</t>
+          <t>892690_diemtbc</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>892690_diemtbc</t>
+          <t>892910_ngatbc</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>892910_ngatbc</t>
+          <t>892910_nga</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>892910_nga</t>
+          <t>892950_dinhtbc</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>892950_dinhtbc</t>
+          <t>893020_dieptbc</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>893020_dieptbc</t>
+          <t>893180_thaotbc</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>893180_thaotbc</t>
+          <t>893200_ngantbc</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>893200_ngantbc</t>
+          <t>893430_nhitbc</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>893430_nhitbc</t>
+          <t>893560_thuy</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>893560_thuy</t>
+          <t>893610_the</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>893610_the</t>
+          <t>893801_liem</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>893801_liem</t>
+          <t>893880_tien</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>893880_tien</t>
+          <t>893880_tientbc</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>893880_tientbc</t>
+          <t>893510_chintbc</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>893510_chintbc</t>
+          <t>893630_thu</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>893630_thu</t>
+          <t>893560_thuytbc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>893560_thuytbc</t>
+          <t>892950_dinh</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>892950_dinh</t>
+          <t>893020_diep</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>893020_diep</t>
+          <t>893100_nhungtbc</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>893100_nhungtbc</t>
+          <t>893470_hoatbc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>893470_hoatbc</t>
+          <t>893610_thetbc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>893610_thetbc</t>
+          <t>891750_duong</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>891750_duong</t>
+          <t>891940_hanh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>891940_hanh</t>
+          <t>891980_thao</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>891980_thao</t>
+          <t>891300_duyen</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>891300_duyen</t>
+          <t>892100_hongtbc</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>892100_hongtbc</t>
+          <t>892100_lieu</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>892100_lieu</t>
+          <t>892900_thuy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>892900_thuy</t>
+          <t>891770_huyentbc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>891770_huyentbc</t>
+          <t>891800_huyen</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>891800_huyen</t>
+          <t>891800_huyentbc</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>891800_huyentbc</t>
+          <t>891850_phuc</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>891850_phuc</t>
+          <t>891920_bay</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>891920_bay</t>
+          <t>891920_baytbc</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>891920_baytbc</t>
+          <t>891940_hanhtbc</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>891940_hanhtbc</t>
+          <t>891960_tuyettbc</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>891960_tuyettbc</t>
+          <t>891350_mytbc</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>891350_mytbc</t>
+          <t>891430_chautbc</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>891430_chautbc</t>
+          <t>893410_duong</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>893410_duong</t>
+          <t>892750_tuyentbc</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>892750_tuyentbc</t>
+          <t>892540_tuyen</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>892540_tuyen</t>
+          <t>891750_duongtbc</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>891750_duongtbc</t>
+          <t>891490_trang</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>891490_trang</t>
+          <t>891390_thutbc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>891390_thutbc</t>
+          <t>893130_quyentbc</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>893130_quyentbc</t>
+          <t>891471_tran</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>891471_tran</t>
+          <t>891540_hangtbc</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>891540_hangtbc</t>
+          <t>892520_linhtbc</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>892520_linhtbc</t>
+          <t>893220_trangtbc</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>893220_trangtbc</t>
+          <t>893530_diemtbc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>893530_diemtbc</t>
+          <t>893530_diem</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>893530_diem</t>
+          <t>893960_huongtbc</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>893960_huongtbc</t>
+          <t>891540_hang</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>891540_hang</t>
+          <t>891090_cuctbc</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>891090_cuctbc</t>
+          <t>894380_thao</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>894380_thao</t>
+          <t>891500_hang</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>891500_hang</t>
+          <t>891130_huong</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>891130_huong</t>
+          <t>891130_huongtbc</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>891130_huongtbc</t>
+          <t>892900_thuytbc</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>892900_thuytbc</t>
+          <t>891700_dam</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>891700_dam</t>
+          <t>891390_thu</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>891390_thu</t>
+          <t>891320_tran</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>891320_tran</t>
+          <t>891378_dungtbc</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>891378_dungtbc</t>
+          <t>891770_huyen</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>891770_huyen</t>
+          <t>891850_phuctbc</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>891850_phuctbc</t>
+          <t>891900_mentbc</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>891900_men</t>
+          <t>891960_tuyet</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>891900_mentbc</t>
+          <t>892120_trantbc</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>891960_tuyet</t>
+          <t>892240_hong</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>892120_trantbc</t>
+          <t>892240_hongtbc</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>892240_hong</t>
+          <t>892670_thamtbc</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>892240_hongtbc</t>
+          <t>892690_diem</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>892670_thamtbc</t>
+          <t>892730_chan</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>892690_diem</t>
+          <t>893840_loantbc</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>892730_chan</t>
+          <t>893400_toan</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>893840_loantbc</t>
+          <t>892600_ntmung</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>893400_toan</t>
+          <t>892500_diep</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>892600_ntmung</t>
+          <t>891700_tbc</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>892500_diep</t>
+          <t>891337_tbc</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>891700_tbc</t>
+          <t>891700_ngan</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>891337_tbc</t>
+          <t>893800_thutrang</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>891700_ngan</t>
+          <t>893800_tbc</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>893800_thutrang</t>
+          <t>892610_mytbc</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>893800_tbc</t>
+          <t>893400_hanh</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>892610_mytbc</t>
+          <t>892600_tbc</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>893400_hanh</t>
+          <t>892500_tbc</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>892600_tbc</t>
+          <t>892610_my</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>892500_tbc</t>
+          <t>893820_lanh</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>892610_my</t>
+          <t>893820_lanhtbc</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>893820_lanh</t>
+          <t>894380_tbc</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>893820_lanhtbc</t>
+          <t>893180_tbc</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>894380_tbc</t>
+          <t>893180_nguyen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>893180_tbc</t>
+          <t>892610_tbc</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>893180_nguyen</t>
+          <t>892500_nga</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>892610_tbc</t>
+          <t>891300_tram</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>892500_nga</t>
+          <t>891300_hien</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>891300_tram</t>
+          <t>891130_tbc</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>891300_hien</t>
+          <t>894380_liem</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>891130_tbc</t>
+          <t>892900_tam</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>894380_liem</t>
+          <t>892900_pthuy</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>892900_tam</t>
+          <t>891700_tu</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>892900_pthuy</t>
+          <t>891460_cuc</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>891700_tu</t>
+          <t>892900_le</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>891460_cuc</t>
+          <t>893800_dao</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>892900_le</t>
+          <t>893800_anh</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>893800_dao</t>
+          <t>891300_chi</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>893800_anh</t>
+          <t>892900_anh</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>891300_chi</t>
+          <t>894380_tam2</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>892900_anh</t>
+          <t>893060_thuy</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>894380_tam2</t>
+          <t>891460_chi</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>893060_thuy</t>
+          <t>893140_phuong</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>891460_chi</t>
+          <t>891340_nhung</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>893140_phuong</t>
+          <t>891050_tbc</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>891340_nhung</t>
+          <t>892770_tbc</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>891050_tbc</t>
+          <t>893080_anh</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>892770_tbc</t>
+          <t>893458_an</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>893080_anh</t>
+          <t>894263_nha</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>893458_an</t>
+          <t>892190_tuoitbc</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>894263_nha</t>
+          <t>891520_hatbc</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>892190_tuoitbc</t>
+          <t>892970_loan</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>891520_hatbc</t>
+          <t>893458_tbc</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>892970_loan</t>
+          <t>893490_duyen</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>893458_tbc</t>
+          <t>892930_tbc</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>893490_duyen</t>
+          <t>893580_tbc</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>892930_tbc</t>
+          <t>892770_thanh</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>893580_tbc</t>
+          <t>891880_linh</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>892770_thanh</t>
+          <t>892900_hoa</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>891880_linh</t>
+          <t>893590_tbc</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>892900_hoa</t>
+          <t>891340_tbc</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>893590_tbc</t>
+          <t>891290_tbc</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>891340_tbc</t>
+          <t>892580_tbc</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>891290_tbc</t>
+          <t>891337_han</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>892580_tbc</t>
+          <t>891520_ha</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>891337_han</t>
+          <t>892970_loantbc</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>891520_ha</t>
+          <t>893850_tbc</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>892970_loantbc</t>
+          <t>893850_xuyen</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>893850_tbc</t>
+          <t>892930_huyen</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>893850_xuyen</t>
+          <t>893180_oanh</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>892930_huyen</t>
+          <t>892500_tran</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>893180_oanh</t>
+          <t>893580_maitbc</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>892500_tran</t>
+          <t>892900_mongdiep</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>893580_maitbc</t>
+          <t>893240_tbc</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>892900_mongdiep</t>
+          <t>891471_hongnga</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>893240_tbc</t>
+          <t>893160_oanh</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>891471_hongnga</t>
+          <t>893530_yentbc</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>893160_oanh</t>
+          <t>893160_tbc</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>893530_yentbc</t>
+          <t>891320_myngoc</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>893160_tbc</t>
+          <t>892210_tuoi</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>891320_myngoc</t>
+          <t>893120_mytbc</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>892210_tuoi</t>
+          <t>894410_my</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>893120_mytbc</t>
+          <t>893800_truc</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>894410_my</t>
+          <t>893120_my</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>893800_truc</t>
+          <t>8913_boituyen</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>893120_my</t>
+          <t>893490_duong</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>8913_boituyen</t>
+          <t>893580_mai</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>893490_duong</t>
+          <t>892210_tuoitbc</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>893580_mai</t>
+          <t>893458_duong</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>892210_tuoitbc</t>
+          <t>892500_yen</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>893458_duong</t>
+          <t>893160_thu</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>892500_yen</t>
+          <t>892220_trantbc</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>893160_thu</t>
+          <t>893040_loan</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>892220_trantbc</t>
+          <t>891460_tbc</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>893040_loan</t>
+          <t>891700_thuylinh</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>891460_tbc</t>
+          <t>893920_tbc</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>891700_thuylinh</t>
+          <t>892100_tbc</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>893920_tbc</t>
+          <t>893920_nhien</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>892630_lieu</t>
+          <t>893240_mytien</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>892100_tbc</t>
+          <t>892100_tuongvi</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>893920_nhien</t>
+          <t>893400_hoangyen</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>893240_mytien</t>
+          <t>892220_tran</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>892100_tuongvi</t>
+          <t>892630_minhtoan</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>893400_hoangyen</t>
+          <t>891320_tbc</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>892220_tran</t>
+          <t>892500_hieu</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>892630_minhtoan</t>
+          <t>893000_thuy</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>891320_tbc</t>
+          <t>893240_nhi</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3232,46 +3232,10 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>892500_hieu</t>
+          <t>891337_xuan</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
-        <is>
-          <t>89_Bưu điện Tỉnh Vĩnh Long</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>893000_thuy</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>89_Bưu điện Tỉnh Vĩnh Long</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>893240_nhi</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>89_Bưu điện Tỉnh Vĩnh Long</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>891337_xuan</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
         <is>
           <t>89_Bưu điện Tỉnh Vĩnh Long</t>
         </is>
